--- a/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.02.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.02.xlsx
@@ -43,21 +43,24 @@
     <t>מה שלומך?</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">היי, </t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">היי, </t>
-  </si>
-  <si>
     <t>יש איזה...</t>
   </si>
   <si>
     <t>trans</t>
   </si>
   <si>
+    <t>disagree</t>
+  </si>
+  <si>
     <t xml:space="preserve">(לא נשמע) </t>
   </si>
   <si>
@@ -85,13 +88,13 @@
     <t>gives-other</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>אתה בחדר הנכון.</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>disagree</t>
+    <t>concern</t>
   </si>
   <si>
     <t>שלום לך קוראים לי דוק.</t>
@@ -161,9 +164,6 @@
   </si>
   <si>
     <t xml:space="preserve">ואני דואגת נורא. פחדתי שהוא יתעלף או יתייבש או ... </t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">זה וירוס כן. </t>
@@ -834,21 +834,21 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -862,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -870,27 +870,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -898,27 +898,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -926,27 +926,27 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -954,27 +954,27 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -991,18 +991,18 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1010,27 +1010,27 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1038,41 +1038,41 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1080,27 +1080,27 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1122,27 +1122,27 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1150,27 +1150,27 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1178,27 +1178,27 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1206,27 +1206,27 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1237,10 +1237,10 @@
         <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1251,10 +1251,10 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1268,10 +1268,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1279,10 +1279,10 @@
         <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1296,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1313,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1321,10 +1321,10 @@
         <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1335,13 +1335,13 @@
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1352,7 +1352,7 @@
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1366,10 +1366,10 @@
         <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1377,10 +1377,10 @@
         <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1391,13 +1391,13 @@
         <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1408,7 +1408,7 @@
         <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1419,7 +1419,7 @@
         <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1436,10 +1436,10 @@
         <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1450,7 +1450,7 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1464,7 +1464,7 @@
         <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1475,13 +1475,13 @@
         <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1492,7 +1492,7 @@
         <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1506,10 +1506,10 @@
         <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1520,7 +1520,7 @@
         <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1531,10 +1531,10 @@
         <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -1551,7 +1551,7 @@
         <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1562,7 +1562,7 @@
         <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1573,13 +1573,13 @@
         <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1587,10 +1587,10 @@
         <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1607,7 +1607,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1618,7 +1618,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1635,7 +1635,7 @@
         <v>56</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1643,10 +1643,10 @@
         <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1660,7 +1660,7 @@
         <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1674,10 +1674,10 @@
         <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1688,7 +1688,7 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1705,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1713,10 +1713,10 @@
         <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1730,7 +1730,7 @@
         <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1741,10 +1741,10 @@
         <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1769,10 +1769,10 @@
         <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1789,7 +1789,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1797,10 +1797,10 @@
         <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -1817,7 +1817,7 @@
         <v>56</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1825,10 +1825,10 @@
         <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -1842,10 +1842,10 @@
         <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1853,10 +1853,10 @@
         <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -1873,7 +1873,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1881,10 +1881,10 @@
         <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1909,10 +1909,10 @@
         <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -1926,10 +1926,10 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1937,10 +1937,10 @@
         <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1957,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1965,10 +1965,10 @@
         <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1985,7 +1985,7 @@
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2007,13 +2007,13 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2024,7 +2024,7 @@
         <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2038,10 +2038,10 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2049,10 +2049,10 @@
         <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -2066,10 +2066,10 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2077,10 +2077,10 @@
         <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -2094,10 +2094,10 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2108,10 +2108,10 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2119,10 +2119,10 @@
         <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2136,10 +2136,10 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2150,7 +2150,7 @@
         <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -2164,10 +2164,10 @@
         <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2178,7 +2178,7 @@
         <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -2192,10 +2192,10 @@
         <v>56</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2203,10 +2203,10 @@
         <v>125</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -2220,7 +2220,7 @@
         <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2231,10 +2231,10 @@
         <v>127</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2248,10 +2248,10 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2259,13 +2259,13 @@
         <v>129</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2290,10 +2290,10 @@
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2301,10 +2301,10 @@
         <v>132</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -2321,7 +2321,7 @@
         <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2332,7 +2332,7 @@
         <v>121</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -2349,7 +2349,7 @@
         <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2357,10 +2357,10 @@
         <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -2377,7 +2377,7 @@
         <v>56</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2385,10 +2385,10 @@
         <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2405,7 +2405,7 @@
         <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2416,7 +2416,7 @@
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -2433,7 +2433,7 @@
         <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2441,10 +2441,10 @@
         <v>142</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
@@ -2458,10 +2458,10 @@
         <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2469,10 +2469,10 @@
         <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -2489,7 +2489,7 @@
         <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2500,7 +2500,7 @@
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
@@ -2517,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2525,10 +2525,10 @@
         <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
